--- a/Mẫu câu/Mỗi buổi tự luyến.xlsx
+++ b/Mẫu câu/Mỗi buổi tự luyến.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>I do not hate it, nor do I like it.</t>
   </si>
@@ -101,6 +103,129 @@
   </si>
   <si>
     <t>And the last thing: the hobbies I mentioned were easy to talk about, so that's why I chose them.</t>
+  </si>
+  <si>
+    <t>I'm a developer. I've been with a company called DTS for three years. DTS stands for Digital Technique Software. it's a Japanese technology company and has a branch in Vietnam.</t>
+  </si>
+  <si>
+    <t>I usually text my friends.</t>
+  </si>
+  <si>
+    <t>I rarely called and never used e-mail to contact them. In my country, the email is for business purposes only.</t>
+  </si>
+  <si>
+    <t>As for texting and calling, I prefer to send a text to my friends rather than call because they may be at work or in a meeting and are not able to hear my phone.</t>
+  </si>
+  <si>
+    <t>when it comes to texting and calling</t>
+  </si>
+  <si>
+    <t>When I receive a message, I will reply to it immediately, especially from my friends or family.</t>
+  </si>
+  <si>
+    <t>I think it's lack of respect if you do not message back right away.</t>
+  </si>
+  <si>
+    <t>You know, they want to talk to you; they want to tell you some fun stories, and you just don't care.</t>
+  </si>
+  <si>
+    <t>Perhaps you are too busy or you are in a meeting, and you do not have a chance to look at your phone.</t>
+  </si>
+  <si>
+    <t>That's OK; you can message back later.</t>
+  </si>
+  <si>
+    <t>It is better to say something like, "Hey, I'm too busy right now. I will text you soon".</t>
+  </si>
+  <si>
+    <t>However, if you do not message back for a couple of hours or even longer, it's rude.</t>
+  </si>
+  <si>
+    <t>An advertising message. When I get these kind of messages. I'll delete them right away because they are too long and I'm too lazy to read them.</t>
+  </si>
+  <si>
+    <t>My company has an annual trip around May or June. I go on a trip once a year and usually go by car.</t>
+  </si>
+  <si>
+    <t>My family doesn't have a car, but we have four motorbikes, one for each member. We drive ourselves to work, to hang out or to go shopping.</t>
+  </si>
+  <si>
+    <t>I want to own a Vinfast car one day. Vinfast is a carmaker in Vietnam. Their cars are luxurious and quite cheap.</t>
+  </si>
+  <si>
+    <t>I want to own a Vinfast car one day. Vinfast is a carmaker in Vietnam. Their cars are luxurious and quite cheap, but even if they're cheap, I still can't afford them now.</t>
+  </si>
+  <si>
+    <t>when I park in the parking place, the car keeper will write me a ticket with my number plate on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I go to work by motorcycle and , </t>
+  </si>
+  <si>
+    <t>so I have to remember my number plate and read it to them.</t>
+  </si>
+  <si>
+    <t>I find it easy to remember those numbers.</t>
+  </si>
+  <si>
+    <t>As I mentioned, I use my number plate almost every day.</t>
+  </si>
+  <si>
+    <t>I go to work by motorcycle, so when I park in the parking place, I have to remember my number plate and read it to the car keeper.</t>
+  </si>
+  <si>
+    <t>Then he will write my number on a ticket and hand it to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And for my identity card and my bank card number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes I use them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's also easy for me to remember because it hasn't changed for years. </t>
+  </si>
+  <si>
+    <t>But they are a long number, so I have to take a long time to memorize them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm really into math. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I was in school, I used to be able to do math all day without getting tired. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And now I'm a developer. </t>
+  </si>
+  <si>
+    <t>It is a logical job. And I find it and do math quite similar.</t>
+  </si>
+  <si>
+    <t>I think it's critical.</t>
+  </si>
+  <si>
+    <t>When I do math, I have to handle and calculate lots of numbers, such as finding the value of X or finding the coordinates of a point, etc.</t>
+  </si>
+  <si>
+    <t>When I study history, I have to memorize the dates and times of events.</t>
+  </si>
+  <si>
+    <t>And when I study geography, I have to predict the temperature or read the height of a mountain based on the map.</t>
+  </si>
+  <si>
+    <t>In my country, the motorcycle is the most popular vehicle.</t>
+  </si>
+  <si>
+    <t>We ride the motorcycle to go to work, go on a trip, and so on.</t>
+  </si>
+  <si>
+    <t>On the other hand, in my country, old people and children often ride bicycles.</t>
+  </si>
+  <si>
+    <t>They pedal to exercise, take in the scenery, or maybe go to the market.</t>
+  </si>
+  <si>
+    <t>As adults, I don't ride bicycles very often anymore.</t>
   </si>
 </sst>
 </file>
@@ -421,7 +546,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -580,4 +705,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>